--- a/biology/Zoologie/Corbeau_à_collier/Corbeau_à_collier.xlsx
+++ b/biology/Zoologie/Corbeau_à_collier/Corbeau_à_collier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corbeau_%C3%A0_collier</t>
+          <t>Corbeau_à_collier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Corbeau à collier (Corvus torquatus), également connu sous les noms de Corbeau à col blanc ou Corbeau Théofan-Marie, est une espèce d'oiseaux de la famille des Corvidés et originaire de la Chine et du nord du Vietnam. Du fait de son comportement charognard, ce corbeau a aujourd'hui une mauvaise réputation en Chine. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corbeau_%C3%A0_collier</t>
+          <t>Corbeau_à_collier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description originale[3], l'auteur indique que cet oiseau noir avec un large collier gris à l'arrière du cou et présente une ceinture blanche sur le thorax. Son ventre est noir.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description originale, l'auteur indique que cet oiseau noir avec un large collier gris à l'arrière du cou et présente une ceinture blanche sur le thorax. Son ventre est noir.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corbeau_%C3%A0_collier</t>
+          <t>Corbeau_à_collier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>R. P. Lesson, Traité d’ornithologie, 1831 (DOI 10.5962/BHL.TITLE.51958, lire en ligne), p. 1-659</t>
         </is>
